--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1147"/>
+  <dimension ref="A1:I1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40689,6 +40689,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1148"/>
+  <dimension ref="A1:I1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40724,6 +40724,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1149"/>
+  <dimension ref="A1:I1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40761,6 +40761,41 @@
         </is>
       </c>
     </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1150"/>
+  <dimension ref="A1:I1151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40796,6 +40796,43 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1151"/>
+  <dimension ref="A1:I1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40833,6 +40833,43 @@
         </is>
       </c>
     </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1152"/>
+  <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40870,6 +40870,43 @@
         </is>
       </c>
     </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1153"/>
+  <dimension ref="A1:I1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40907,6 +40907,41 @@
         </is>
       </c>
     </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1154"/>
+  <dimension ref="A1:I1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40942,6 +40942,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1155"/>
+  <dimension ref="A1:I1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40977,6 +40977,41 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1156"/>
+  <dimension ref="A1:I1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41012,6 +41012,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1157"/>
+  <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41049,6 +41049,41 @@
         </is>
       </c>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1158"/>
+  <dimension ref="A1:I1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41084,6 +41084,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>566000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1159"/>
+  <dimension ref="A1:I1161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41119,6 +41119,76 @@
         <v>566000</v>
       </c>
     </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>83100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1161"/>
+  <dimension ref="A1:I1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41189,6 +41189,78 @@
         <v>83100</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>177000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1163"/>
+  <dimension ref="A1:I1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41261,6 +41261,43 @@
         <v>177000</v>
       </c>
     </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1164"/>
+  <dimension ref="A1:I1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41298,6 +41298,43 @@
         </is>
       </c>
     </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1165"/>
+  <dimension ref="A1:I1166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41335,6 +41335,41 @@
         </is>
       </c>
     </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1166"/>
+  <dimension ref="A1:I1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41370,6 +41370,41 @@
         <v>2500000</v>
       </c>
     </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1167"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41405,6 +41405,78 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>133000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1169"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41477,6 +41477,41 @@
         <v>133000</v>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>207000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41512,6 +41512,41 @@
         <v>207000</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1051000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2180"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76862,6 +76862,41 @@
         <v>1051000</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>969800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76897,6 +76897,41 @@
         <v>969800</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>95000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2182"/>
+  <dimension ref="A1:I2183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76932,6 +76932,41 @@
         <v>95000</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>233600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76967,6 +76967,41 @@
         <v>233600</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>154000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77002,6 +77002,41 @@
         <v>154000</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>11400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2185"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77037,6 +77037,41 @@
         <v>11400</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>12163300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77072,6 +77072,41 @@
         <v>12163300</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>9300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77107,6 +77107,43 @@
         <v>9300</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77144,6 +77144,41 @@
         </is>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>3300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77179,6 +77179,43 @@
         <v>3300</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2190"/>
+  <dimension ref="A1:I2191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77216,6 +77216,41 @@
         </is>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>126000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2191"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77251,6 +77251,41 @@
         <v>126000</v>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2192"/>
+  <dimension ref="A1:I2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77286,6 +77286,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77321,6 +77321,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>133100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77356,6 +77356,41 @@
         <v>133100</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>9800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77391,6 +77391,43 @@
         <v>9800</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77428,6 +77428,43 @@
         </is>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77465,6 +77465,41 @@
         </is>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77500,6 +77500,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>117600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77535,6 +77535,41 @@
         <v>117600</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77570,6 +77570,43 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2201"/>
+  <dimension ref="A1:I2202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77607,6 +77607,41 @@
         </is>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2202"/>
+  <dimension ref="A1:I2203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77642,6 +77642,41 @@
         <v>300</v>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77677,6 +77677,41 @@
         <v>13200</v>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77712,6 +77712,41 @@
         <v>12500</v>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>132600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77747,6 +77747,78 @@
         <v>132600</v>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77819,6 +77819,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77856,6 +77856,113 @@
         </is>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>232000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77963,6 +77963,41 @@
         <v>232000</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>84000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77998,6 +77998,43 @@
         <v>84000</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0159.xlsx
+++ b/data/0159.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78035,6 +78035,115 @@
         </is>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>112800</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>0159</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>AMEDIA</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
